--- a/component.xlsx
+++ b/component.xlsx
@@ -1,52 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C24459\Desktop\02_manual\IC\component\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7C7096-D6B6-49BC-B59E-91ECE860E824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9581433E-25C1-4731-B1A3-29D451F8FBD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="813" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="813" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="编号" sheetId="4" r:id="rId1"/>
     <sheet name="电阻0402" sheetId="5" r:id="rId2"/>
     <sheet name="电阻0603" sheetId="1" r:id="rId3"/>
     <sheet name="电阻0805" sheetId="6" r:id="rId4"/>
-    <sheet name="其他电阻" sheetId="7" r:id="rId5"/>
-    <sheet name="电容0402" sheetId="9" r:id="rId6"/>
-    <sheet name="电容0603" sheetId="10" r:id="rId7"/>
-    <sheet name="电容0805" sheetId="2" r:id="rId8"/>
-    <sheet name="电容1206" sheetId="15" r:id="rId9"/>
-    <sheet name="电容1210" sheetId="16" r:id="rId10"/>
-    <sheet name="钽电容" sheetId="13" r:id="rId11"/>
-    <sheet name="电感" sheetId="3" r:id="rId12"/>
-    <sheet name="MOS,三极管，二极管，稳压管，运放" sheetId="8" r:id="rId13"/>
-    <sheet name="芯片" sheetId="11" r:id="rId14"/>
-    <sheet name="Sheet2" sheetId="14" r:id="rId15"/>
-    <sheet name="其它" sheetId="12" r:id="rId16"/>
+    <sheet name="电阻1206" sheetId="7" r:id="rId5"/>
+    <sheet name="电阻2512" sheetId="17" r:id="rId6"/>
+    <sheet name="电容0402" sheetId="9" r:id="rId7"/>
+    <sheet name="电容0603" sheetId="10" r:id="rId8"/>
+    <sheet name="电容0805" sheetId="2" r:id="rId9"/>
+    <sheet name="电容1206" sheetId="15" r:id="rId10"/>
+    <sheet name="电容1210" sheetId="16" r:id="rId11"/>
+    <sheet name="钽电容" sheetId="13" r:id="rId12"/>
+    <sheet name="电感" sheetId="3" r:id="rId13"/>
+    <sheet name="MOS,三极管，二极管，稳压管，运放" sheetId="8" r:id="rId14"/>
+    <sheet name="芯片" sheetId="11" r:id="rId15"/>
+    <sheet name="Sheet2" sheetId="14" r:id="rId16"/>
+    <sheet name="其它" sheetId="12" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="193">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1047,7 +1037,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1147,12 +1137,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1163,21 +1177,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1564,7 +1563,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1579,7 +1578,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="14">
-        <f>MAX(电阻0402!D2:D150,电阻0603!D2:D150,电阻0805!D2:D151,其他电阻!F1:F150)</f>
+        <f>MAX(电阻0402!D2:D150,电阻0603!D2:D150,电阻0805!D2:D151,电阻1206!F1:F150,电阻2512!F1:F150)</f>
         <v>25</v>
       </c>
     </row>
@@ -1588,7 +1587,7 @@
         <v>47</v>
       </c>
       <c r="B2" s="14">
-        <f>MAX(电容0402!E3:E112,电容0603!E3:E148,电容0805!E3:E166,钽电容!E1:E100)</f>
+        <f>MAX(电容0402!E3:E112,电容0603!E3:E148,电容0805!E3:E166,钽电容!E1:E100,电容1206!E3:E166,电容1210!E3:E166)</f>
         <v>17</v>
       </c>
     </row>
@@ -1609,11 +1608,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B62243-BDB5-42F9-9A5D-470EC3592393}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD81458-B9AD-4AFA-9D20-9E97E1191DF8}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1622,13 +1621,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1653,12 +1652,23 @@
     </row>
     <row r="3" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="B3" s="4">
         <v>0.2</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1672,6 +1682,69 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B62243-BDB5-42F9-9A5D-470EC3592393}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9EC57B-F13B-4276-8B68-29FD3024E763}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1741,7 +1814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -1805,11 +1878,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B563383-FB66-4B9F-9DAA-4539DE791B82}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1841,16 +1914,16 @@
       <c r="D2" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
       <c r="K2" s="21" t="s">
         <v>61</v>
       </c>
@@ -1865,28 +1938,28 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="43">
         <v>1</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="43">
         <v>1.6</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="43">
         <v>2.5</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="43">
         <v>150</v>
       </c>
       <c r="I3" s="3">
@@ -1895,33 +1968,33 @@
       <c r="J3" s="3">
         <v>5</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="N3" s="35">
+      <c r="N3" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
       <c r="I4" s="3">
         <v>1.1000000000000001</v>
       </c>
       <c r="J4" s="3">
         <v>7</v>
       </c>
-      <c r="K4" s="34"/>
+      <c r="K4" s="40"/>
       <c r="M4" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="N4" s="36"/>
+      <c r="N4" s="44"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -2187,10 +2260,10 @@
       <c r="C19" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="38"/>
+      <c r="E19" s="46"/>
       <c r="L19" s="7" t="s">
         <v>25</v>
       </c>
@@ -2238,8 +2311,8 @@
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="46"/>
       <c r="L23" s="7" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2335,8 @@
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="46"/>
       <c r="L26" s="7" t="s">
         <v>25</v>
       </c>
@@ -2379,6 +2452,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="A3:A4"/>
@@ -2389,18 +2467,13 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7502557B-8815-4D13-AAB1-17426AD4C9B4}">
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -2655,7 +2728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2803ADF-A860-492C-B053-E3040B51DEA3}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2668,7 +2741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F128EC25-23EC-43E0-8F80-682BC0EE98B4}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2724,12 +2797,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -2854,7 +2927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
@@ -2868,12 +2941,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -3078,12 +3151,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -3166,10 +3239,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F46A7EB-107C-46C8-BD21-696466731796}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3217,26 +3290,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>360</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2512</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3245,6 +3298,70 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4A00E3-9456-4A15-911D-FEAB6A927D75}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>360</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2512</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="34"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90739AA-B52E-4319-B33D-8C84B8E0F07E}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -3260,13 +3377,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3397,155 +3514,6 @@
       </c>
       <c r="F9" s="2" t="s">
         <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479350D5-06EE-49C0-AC66-EC7C1A65CAD8}">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="1">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="3">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="3">
-        <v>9</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="3">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3558,6 +3526,155 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479350D5-06EE-49C0-AC66-EC7C1A65CAD8}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -3573,13 +3690,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3664,78 +3781,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD81458-B9AD-4AFA-9D20-9E97E1191DF8}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection sqref="A1:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="6" width="8.88671875" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>